--- a/medicine/Enfance/Affaire_Olivier_de_Scitivaux/Affaire_Olivier_de_Scitivaux.xlsx
+++ b/medicine/Enfance/Affaire_Olivier_de_Scitivaux/Affaire_Olivier_de_Scitivaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'affaire Olivier de Scitivaux est une affaire judiciaire de mœurs mettant en cause le prêtre français Olivier de Scitivaux de Greische accusé d'avoir abusé sexuellement de jeunes garçons. Il a été mis en examen en 2018 et incarcéré pendant 10 mois. Olivier de Scitivaux est exclu de l'état clérical en 2021. En mai 2024, il est reconnu coupable de viols et d'agressions sexuelles et condamné à 17 ans de réclusion criminelle. Il fait appel de sa condamnation.
@@ -512,16 +524,18 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier de Scitivaux est ordonné prêtre en 1989[1]. Il est prêtre à l'église Saint-Paterne d'Orléans dans les années 1990. De 2013 jusqu'au mois de mars 2018, il est le recteur de la basilique Notre-Dame de Cléry près d'Orléans, dans le département du Loiret (région Centre-Val-de-Loire)[2],[3]. Il fut également, dans les années 2000, aumônier de plusieurs collèges et lycées d'Orléans[4].
-Le 28 mars 2018, l'évêque Jacques Blaquart rend publiques les accusations d'agressions sexuelles de deux personnes à l'égard d'Olivier de Scitivaux. Il annonce sa suspension de ses fonctions et informe le parquet afin qu'une enquête soit ouverte[5]. En avril 2018, Olivier de Scitivaux est inculpé et placé sous contrôle judiciaire[6]. Il est incarcéré en juillet 2018.
-Une victime affirme avoir subi attouchements et viols par le prêtre entre 1992 et 1998, alors qu'elle avait entre 9 et 15 ans. Comme pour la première victime, ces agressions se seraient déroulées dans un camp de vacances à Perros-Guirec et à Orléans. Un troisième homme a aussi déposé plainte pour des faits similaires dans les années 1980, mais ces faits prescrits ne peuvent pas donner lieu à des poursuites[7].
-Après 10 mois de détention provisoire, Olivier de Scitivaux est libéré le 23 mai 2019. Les quatre victimes présumées du prêtre lancent un appel pour que la parole se libère et que d'autres victimes se manifestent[8], dans les institutions fréquentées par Olivier de Scitivaux comme : « les paroisses à Cléry, St-Jean-le-Blanc, Meung-sur-Loire, St-Paterne, et bien d'autres, aux Scouts d'Europe à Orléans, au sein du Quinquis à Perros-Guirec [centre de vacances], dans les aumôneries comme Sichem [aumônerie des collèges et lycées publics d'Orléans], les collèges, lycées, écoles comme Sainte-Croix »[9]. De même, Jean-François Bernard, première victime à s'être signalée, appelle d'autres victimes à se faire connaitre[10] : « Nous parlons, mais pour certains ça n'est pas encore le moment, il faut du temps, le temps de la reconstruction. Et certaines ne le souhaitent pas »[11].
-En 2021, après avoir reconnu les agressions devant un juge canonique[12], Olivier de Scitivaux est renvoyé de l'état clérical (à sa demande) par décision de la Congrégation pour la doctrine de la foi[13],[14].
-Le juge d'instruction ayant décidé de renvoyer Olivier de Scitivaux devant la cour d'assises, ce dernier a contesté la décision. Mais en décembre 2022, la chambre d'instruction de la cour d'appel d'Orléans confirme le renvoi d'Olivier de Scitivaux devant les assises pour viols et agressions sexuelles[15].
-Le procès d'Olivier de Scitivaux de Greische, âgé de 64 ans, se tient devant la cour d’assises du Loiret en mai 2024. Il est jugé pour des viols et des agressions sexuelles sur quatre plaignants, âgés de moins de 15 ans à l’époque, dans les années 1990 et 2000[16]. Lors du procès, l'ancien prêtre avoue tout : « Je reconnais, puisqu'il faut utiliser les mots, les attouchements, les caresses, les fellations, les pénétrations digitales et péniennes, l'ensemble des faits ». De plus il reconnait des actes similaires sur deux autres victimes dès 1982 mais dont les faits sont prescrits[1]. Reconnu coupable de viols et d'agressions sexuelles, il est condamné à 17 ans de réclusion criminelle, assortie d'une période de sûreté de 10 ans[17]. De plus il est condamné à un « suivi sociojudiciaire », « une injonction de soins » et à « l’interdiction d’exercer toute activité professionnelle ou bénévole impliquant un contact avec des mineurs »[18].
-Olivier de Scitivaux fait appel de sa condamnation[19].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier de Scitivaux est ordonné prêtre en 1989. Il est prêtre à l'église Saint-Paterne d'Orléans dans les années 1990. De 2013 jusqu'au mois de mars 2018, il est le recteur de la basilique Notre-Dame de Cléry près d'Orléans, dans le département du Loiret (région Centre-Val-de-Loire),. Il fut également, dans les années 2000, aumônier de plusieurs collèges et lycées d'Orléans.
+Le 28 mars 2018, l'évêque Jacques Blaquart rend publiques les accusations d'agressions sexuelles de deux personnes à l'égard d'Olivier de Scitivaux. Il annonce sa suspension de ses fonctions et informe le parquet afin qu'une enquête soit ouverte. En avril 2018, Olivier de Scitivaux est inculpé et placé sous contrôle judiciaire. Il est incarcéré en juillet 2018.
+Une victime affirme avoir subi attouchements et viols par le prêtre entre 1992 et 1998, alors qu'elle avait entre 9 et 15 ans. Comme pour la première victime, ces agressions se seraient déroulées dans un camp de vacances à Perros-Guirec et à Orléans. Un troisième homme a aussi déposé plainte pour des faits similaires dans les années 1980, mais ces faits prescrits ne peuvent pas donner lieu à des poursuites.
+Après 10 mois de détention provisoire, Olivier de Scitivaux est libéré le 23 mai 2019. Les quatre victimes présumées du prêtre lancent un appel pour que la parole se libère et que d'autres victimes se manifestent, dans les institutions fréquentées par Olivier de Scitivaux comme : « les paroisses à Cléry, St-Jean-le-Blanc, Meung-sur-Loire, St-Paterne, et bien d'autres, aux Scouts d'Europe à Orléans, au sein du Quinquis à Perros-Guirec [centre de vacances], dans les aumôneries comme Sichem [aumônerie des collèges et lycées publics d'Orléans], les collèges, lycées, écoles comme Sainte-Croix ». De même, Jean-François Bernard, première victime à s'être signalée, appelle d'autres victimes à se faire connaitre : « Nous parlons, mais pour certains ça n'est pas encore le moment, il faut du temps, le temps de la reconstruction. Et certaines ne le souhaitent pas ».
+En 2021, après avoir reconnu les agressions devant un juge canonique, Olivier de Scitivaux est renvoyé de l'état clérical (à sa demande) par décision de la Congrégation pour la doctrine de la foi,.
+Le juge d'instruction ayant décidé de renvoyer Olivier de Scitivaux devant la cour d'assises, ce dernier a contesté la décision. Mais en décembre 2022, la chambre d'instruction de la cour d'appel d'Orléans confirme le renvoi d'Olivier de Scitivaux devant les assises pour viols et agressions sexuelles.
+Le procès d'Olivier de Scitivaux de Greische, âgé de 64 ans, se tient devant la cour d’assises du Loiret en mai 2024. Il est jugé pour des viols et des agressions sexuelles sur quatre plaignants, âgés de moins de 15 ans à l’époque, dans les années 1990 et 2000. Lors du procès, l'ancien prêtre avoue tout : « Je reconnais, puisqu'il faut utiliser les mots, les attouchements, les caresses, les fellations, les pénétrations digitales et péniennes, l'ensemble des faits ». De plus il reconnait des actes similaires sur deux autres victimes dès 1982 mais dont les faits sont prescrits. Reconnu coupable de viols et d'agressions sexuelles, il est condamné à 17 ans de réclusion criminelle, assortie d'une période de sûreté de 10 ans. De plus il est condamné à un « suivi sociojudiciaire », « une injonction de soins » et à « l’interdiction d’exercer toute activité professionnelle ou bénévole impliquant un contact avec des mineurs ».
+Olivier de Scitivaux fait appel de sa condamnation.
 </t>
         </is>
       </c>
